--- a/Comparison/results.xlsx
+++ b/Comparison/results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liubi\OneDrive\文档\Github Repo\PSS---share\Comparison\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/df5ed6e2797f344c/文档/Github Repo/PSS---share/Comparison/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6FCBFA-FEC1-477F-B679-7A847FAECBF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{2F6FCBFA-FEC1-477F-B679-7A847FAECBF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD752668-F3A6-49F7-88FA-1AB26ADF8374}"/>
   <bookViews>
-    <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="8880" xr2:uid="{89A85811-764B-44E1-91C5-C8E51A960FF3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{89A85811-764B-44E1-91C5-C8E51A960FF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="110">
   <si>
     <t>source: C:\Users\liubing8\OneDrive - Merck Sharp &amp; Dohme LLC\Documents\Github Repos\PSS---share\Simulation Study\WIP - Bing\resultprint\cities simulator</t>
   </si>
@@ -718,6 +718,364 @@
   </si>
   <si>
     <t xml:space="preserve">pc: 14.5 hrs </t>
+  </si>
+  <si>
+    <t>s1</t>
+  </si>
+  <si>
+    <t>s2</t>
+  </si>
+  <si>
+    <t>s3</t>
+  </si>
+  <si>
+    <t>s4</t>
+  </si>
+  <si>
+    <t>s5</t>
+  </si>
+  <si>
+    <t>trt-huge-scenB</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">mean_control = c(0,0,0,0,0)
+mean_treatment = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.5*c(0,0.2,0.4,0.6,0.8)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+mean_list = list(mean_control, mean_treatment)
+sigma_ar_vec = c(3, 3)
+pacf_list = list(c(0.5), 
+                 c(0.5))
+beta_list = list(c(1.25, 1.25),
+                 c(1.25, 1.25))
+covariate_df = NA
+# LoE &amp; EE
+up_good = "Up" 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p_loe_max = 0.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+z_l_loe = -7
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>z_u_loe = -2.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+p_ee_max = 0
+z_l_ee = 0
+z_u_ee = 00
+# Admin &amp; AE
+p_admin_ctrl = 0.012
+p_admin_expt = 0.012
+p_admin = c(p_admin_ctrl, p_admin_expt)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">prob_ae_ctrl = 0.2
+prob_ae_expt = 0.2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">prob_ae = c(prob_ae_ctrl, prob_ae_expt)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">rate_dc_ae_ctrl = 0.2
+rate_dc_ae_expt = 0.2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rate_dc_ae = c(rate_dc_ae_ctrl, rate_dc_ae_expt)</t>
+    </r>
+  </si>
+  <si>
+    <t>s6</t>
+  </si>
+  <si>
+    <t>trt-huge-scenC</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">mean_control = c(0,0,0,0,0)
+mean_treatment = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.5*c(0,0.2,0.4,0.6,0.8)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+mean_list = list(mean_control, mean_treatment)
+sigma_ar_vec = c(3, 3)
+pacf_list = list(c(0.5), 
+                 c(0.5))
+beta_list = list(c(1.25, 1.25),
+                 c(1.25, 1.25))
+covariate_df = NA
+# LoE &amp; EE
+up_good = "Up" 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p_loe_max = 0.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+z_l_loe = -7
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>z_u_loe = -2.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+p_ee_max = 0
+z_l_ee = 0
+z_u_ee = 00
+# Admin &amp; AE
+p_admin_ctrl = 0.012
+p_admin_expt = 0.012
+p_admin = c(p_admin_ctrl, p_admin_expt)
+prob_ae_ctrl =0.08
+prob_ae_expt =0.08
+prob_ae = c(prob_ae_ctrl, prob_ae_expt)
+rate_dc_ae_ctrl = 0.08
+rate_dc_ae_expt = 0.08
+rate_dc_ae = c(rate_dc_ae_ctrl, rate_dc_ae_expt)</t>
+    </r>
+  </si>
+  <si>
+    <t>s7</t>
+  </si>
+  <si>
+    <t>s8</t>
+  </si>
+  <si>
+    <t>trt_null_scenB</t>
+  </si>
+  <si>
+    <t>trt_null_scenC</t>
+  </si>
+  <si>
+    <t>mean_control = c(0,0,0,0,0)
+mean_treatment = mean_control
+mean_list = list(mean_control, mean_treatment)
+sigma_ar_vec = c(3, 3)
+pacf_list = list(c(0.5), 
+                 c(0.5))
+beta_list = list(c(1.25, 1.25),
+                 c(1.25, 1.25))
+covariate_df = NA
+# LoE &amp; EE
+up_good = "Up" 
+p_loe_max = 0.5
+z_l_loe = -7
+z_u_loe = -2.5
+p_ee_max = 0
+z_l_ee = 0
+z_u_ee = 00
+# Admin &amp; AE
+p_admin_ctrl = 0.012
+p_admin_expt = 0.012
+p_admin = c(p_admin_ctrl, p_admin_expt)
+prob_ae_ctrl = 0.2
+prob_ae_expt = 0.2
+prob_ae = c(prob_ae_ctrl, prob_ae_expt)
+rate_dc_ae_ctrl = 0.2
+rate_dc_ae_expt = 0.2
+rate_dc_ae = c(rate_dc_ae_ctrl, rate_dc_ae_expt)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">mean_control = c(0,0,0,0,0)
+mean_treatment = mean_control
+mean_list = list(mean_control, mean_treatment)
+sigma_ar_vec = c(3, 3)
+pacf_list = list(c(0.5), 
+                 c(0.5))
+beta_list = list(c(1.25, 1.25),
+                 c(1.25, 1.25))
+covariate_df = NA
+# LoE &amp; EE
+up_good = "Up" 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p_loe_max = 0.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+z_l_loe = -7
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>z_u_loe = -2.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+p_ee_max = 0
+z_l_ee = 0
+z_u_ee = 00
+# Admin &amp; AE
+p_admin_ctrl = 0.012
+p_admin_expt = 0.012
+p_admin = c(p_admin_ctrl, p_admin_expt)
+prob_ae_ctrl =0.08
+prob_ae_expt =0.08
+prob_ae = c(prob_ae_ctrl, prob_ae_expt)
+rate_dc_ae_ctrl = 0.08
+rate_dc_ae_expt = 0.08
+rate_dc_ae = c(rate_dc_ae_ctrl, rate_dc_ae_expt)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1053,7 +1411,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1157,68 +1515,68 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1231,6 +1589,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="20% - Accent4" xfId="5" builtinId="42"/>
@@ -1575,7 +1934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2119892F-1DF5-4A5D-A08E-8F774127DEBA}">
   <dimension ref="A1:AF61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3:E3"/>
     </sheetView>
   </sheetViews>
@@ -1606,31 +1965,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
     </row>
     <row r="2" spans="1:32" ht="42.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:32" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
       <c r="F3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1649,90 +2008,90 @@
       <c r="L3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="52" t="s">
+      <c r="N3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="45"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="52" t="s">
+      <c r="O3" s="39"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="R3" s="45"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="52" t="s">
+      <c r="R3" s="39"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="U3" s="45"/>
-      <c r="V3" s="53"/>
-      <c r="W3" s="52" t="s">
+      <c r="U3" s="39"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="53"/>
-      <c r="Z3" s="38" t="s">
+      <c r="X3" s="39"/>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="AA3" s="39"/>
-      <c r="AB3" s="39"/>
+      <c r="AA3" s="56"/>
+      <c r="AB3" s="56"/>
     </row>
     <row r="4" spans="1:32" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="56"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="N4" s="40" t="s">
+      <c r="A4" s="37"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="N4" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="O4" s="40" t="s">
+      <c r="O4" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="P4" s="37" t="s">
+      <c r="P4" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="40" t="s">
+      <c r="Q4" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="R4" s="40" t="s">
+      <c r="R4" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="S4" s="37" t="s">
+      <c r="S4" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="T4" s="40" t="s">
+      <c r="T4" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="U4" s="40" t="s">
+      <c r="U4" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="V4" s="37" t="s">
+      <c r="V4" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="W4" s="40" t="s">
+      <c r="W4" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="X4" s="40" t="s">
+      <c r="X4" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="Y4" s="37" t="s">
+      <c r="Y4" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="Z4" s="36" t="s">
+      <c r="Z4" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="AA4" s="36" t="s">
+      <c r="AA4" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="AB4" s="37" t="s">
+      <c r="AB4" s="43" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="56"/>
-      <c r="C5" s="44" t="s">
+      <c r="A5" s="37"/>
+      <c r="C5" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
       <c r="F5" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -1748,24 +2107,24 @@
       <c r="J5" s="5">
         <v>0.98599999999999999</v>
       </c>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="37"/>
-      <c r="T5" s="40"/>
-      <c r="U5" s="40"/>
-      <c r="V5" s="37"/>
-      <c r="W5" s="40"/>
-      <c r="X5" s="40"/>
-      <c r="Y5" s="37"/>
-      <c r="Z5" s="36"/>
-      <c r="AA5" s="36"/>
-      <c r="AB5" s="37"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="43"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="42"/>
+      <c r="X5" s="42"/>
+      <c r="Y5" s="43"/>
+      <c r="Z5" s="52"/>
+      <c r="AA5" s="52"/>
+      <c r="AB5" s="43"/>
     </row>
     <row r="6" spans="1:32" s="1" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="56"/>
+      <c r="A6" s="37"/>
       <c r="F6" s="5" t="s">
         <v>34</v>
       </c>
@@ -1794,12 +2153,12 @@
       <c r="AB6" s="34"/>
     </row>
     <row r="7" spans="1:32" s="1" customFormat="1" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="56"/>
-      <c r="C7" s="45" t="s">
+      <c r="A7" s="37"/>
+      <c r="C7" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
       <c r="F7" s="5" t="s">
         <v>34</v>
       </c>
@@ -1825,11 +2184,11 @@
       <c r="Y7" s="7"/>
     </row>
     <row r="8" spans="1:32" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="56"/>
-      <c r="C8" s="46" t="s">
+      <c r="A8" s="37"/>
+      <c r="C8" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="46" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="9" t="s">
@@ -1863,9 +2222,9 @@
       </c>
     </row>
     <row r="9" spans="1:32" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="56"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="48"/>
+      <c r="A9" s="37"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="46"/>
       <c r="E9" s="9" t="s">
         <v>15</v>
       </c>
@@ -1898,9 +2257,9 @@
       </c>
     </row>
     <row r="10" spans="1:32" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="56"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="49" t="s">
+      <c r="A10" s="37"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="47" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="13" t="s">
@@ -1931,9 +2290,9 @@
       <c r="Y10" s="11"/>
     </row>
     <row r="11" spans="1:32" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="56"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="49"/>
+      <c r="A11" s="37"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="47"/>
       <c r="E11" s="13" t="s">
         <v>19</v>
       </c>
@@ -1962,9 +2321,9 @@
       <c r="Y11" s="11"/>
     </row>
     <row r="12" spans="1:32" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="56"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="50" t="s">
+      <c r="A12" s="37"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="48" t="s">
         <v>20</v>
       </c>
       <c r="E12" s="15" t="s">
@@ -1995,9 +2354,9 @@
       <c r="Y12" s="11"/>
     </row>
     <row r="13" spans="1:32" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="56"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="51"/>
+      <c r="A13" s="37"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="49"/>
       <c r="E13" s="16" t="s">
         <v>22</v>
       </c>
@@ -2032,14 +2391,14 @@
     <row r="14" spans="1:32" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="1:32" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="55" t="s">
+      <c r="A16" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
       <c r="F16" s="3" t="s">
         <v>2</v>
       </c>
@@ -2058,113 +2417,113 @@
       <c r="L16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N16" s="52" t="s">
+      <c r="N16" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="O16" s="45"/>
-      <c r="P16" s="53"/>
-      <c r="Q16" s="52" t="s">
+      <c r="O16" s="39"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="R16" s="45"/>
-      <c r="S16" s="53"/>
-      <c r="T16" s="52" t="s">
+      <c r="R16" s="39"/>
+      <c r="S16" s="40"/>
+      <c r="T16" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="U16" s="45"/>
-      <c r="V16" s="53"/>
-      <c r="W16" s="52" t="s">
+      <c r="U16" s="39"/>
+      <c r="V16" s="40"/>
+      <c r="W16" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="X16" s="45"/>
-      <c r="Y16" s="53"/>
-      <c r="Z16" s="38" t="s">
+      <c r="X16" s="39"/>
+      <c r="Y16" s="40"/>
+      <c r="Z16" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="AA16" s="39"/>
-      <c r="AB16" s="39"/>
+      <c r="AA16" s="56"/>
+      <c r="AB16" s="56"/>
     </row>
     <row r="17" spans="1:31" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="56"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="N17" s="40" t="s">
+      <c r="A17" s="37"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="N17" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="O17" s="40" t="s">
+      <c r="O17" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="P17" s="36" t="s">
+      <c r="P17" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="Q17" s="36" t="s">
+      <c r="Q17" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="R17" s="36" t="s">
+      <c r="R17" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="S17" s="37" t="s">
+      <c r="S17" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="T17" s="36" t="s">
+      <c r="T17" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="U17" s="36" t="s">
+      <c r="U17" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="V17" s="37" t="s">
+      <c r="V17" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="W17" s="36" t="s">
+      <c r="W17" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="X17" s="36" t="s">
+      <c r="X17" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="Y17" s="37" t="s">
+      <c r="Y17" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="Z17" s="36" t="s">
+      <c r="Z17" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="AA17" s="36" t="s">
+      <c r="AA17" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="AB17" s="37" t="s">
+      <c r="AB17" s="43" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="56"/>
-      <c r="C18" s="44" t="s">
+      <c r="A18" s="37"/>
+      <c r="C18" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
-      <c r="S18" s="37"/>
-      <c r="T18" s="36"/>
-      <c r="U18" s="36"/>
-      <c r="V18" s="37"/>
-      <c r="W18" s="36"/>
-      <c r="X18" s="36"/>
-      <c r="Y18" s="37"/>
-      <c r="Z18" s="36"/>
-      <c r="AA18" s="36"/>
-      <c r="AB18" s="37"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="52"/>
+      <c r="R18" s="52"/>
+      <c r="S18" s="43"/>
+      <c r="T18" s="52"/>
+      <c r="U18" s="52"/>
+      <c r="V18" s="43"/>
+      <c r="W18" s="52"/>
+      <c r="X18" s="52"/>
+      <c r="Y18" s="43"/>
+      <c r="Z18" s="52"/>
+      <c r="AA18" s="52"/>
+      <c r="AB18" s="43"/>
     </row>
     <row r="19" spans="1:31" s="1" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="56"/>
+      <c r="A19" s="37"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -2182,12 +2541,12 @@
       <c r="AC19" s="2"/>
     </row>
     <row r="20" spans="1:31" s="1" customFormat="1" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="56"/>
-      <c r="C20" s="45" t="s">
+      <c r="A20" s="37"/>
+      <c r="C20" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
@@ -2205,11 +2564,11 @@
       <c r="AC20" s="2"/>
     </row>
     <row r="21" spans="1:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="56"/>
-      <c r="C21" s="46" t="s">
+      <c r="A21" s="37"/>
+      <c r="C21" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="48" t="s">
+      <c r="D21" s="46" t="s">
         <v>12</v>
       </c>
       <c r="E21" s="9" t="s">
@@ -2230,9 +2589,9 @@
       <c r="Y21" s="11"/>
     </row>
     <row r="22" spans="1:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="56"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="48"/>
+      <c r="A22" s="37"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="46"/>
       <c r="E22" s="9" t="s">
         <v>15</v>
       </c>
@@ -2251,9 +2610,9 @@
       <c r="Y22" s="11"/>
     </row>
     <row r="23" spans="1:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="56"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="49" t="s">
+      <c r="A23" s="37"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="47" t="s">
         <v>17</v>
       </c>
       <c r="E23" s="13" t="s">
@@ -2274,9 +2633,9 @@
       <c r="Y23" s="11"/>
     </row>
     <row r="24" spans="1:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="56"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="49"/>
+      <c r="A24" s="37"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="47"/>
       <c r="E24" s="13" t="s">
         <v>19</v>
       </c>
@@ -2295,9 +2654,9 @@
       <c r="Y24" s="11"/>
     </row>
     <row r="25" spans="1:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="56"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="50" t="s">
+      <c r="A25" s="37"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="48" t="s">
         <v>20</v>
       </c>
       <c r="E25" s="15" t="s">
@@ -2318,9 +2677,9 @@
       <c r="Y25" s="11"/>
     </row>
     <row r="26" spans="1:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="56"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="51"/>
+      <c r="A26" s="37"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="49"/>
       <c r="E26" s="16" t="s">
         <v>22</v>
       </c>
@@ -2345,14 +2704,14 @@
     <row r="27" spans="1:31" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="29" spans="1:31" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="56" t="s">
+      <c r="A29" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="43" t="s">
+      <c r="C29" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
       <c r="F29" s="3" t="s">
         <v>2</v>
       </c>
@@ -2371,80 +2730,80 @@
       <c r="L29" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N29" s="52" t="s">
+      <c r="N29" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="O29" s="45"/>
-      <c r="P29" s="53"/>
-      <c r="Q29" s="52" t="s">
+      <c r="O29" s="39"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="R29" s="45"/>
-      <c r="S29" s="53"/>
-      <c r="T29" s="52" t="s">
+      <c r="R29" s="39"/>
+      <c r="S29" s="40"/>
+      <c r="T29" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="U29" s="45"/>
-      <c r="V29" s="53"/>
-      <c r="W29" s="52" t="s">
+      <c r="U29" s="39"/>
+      <c r="V29" s="40"/>
+      <c r="W29" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="X29" s="45"/>
-      <c r="Y29" s="53"/>
-      <c r="Z29" s="38" t="s">
+      <c r="X29" s="39"/>
+      <c r="Y29" s="40"/>
+      <c r="Z29" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="AA29" s="39"/>
-      <c r="AB29" s="39"/>
+      <c r="AA29" s="56"/>
+      <c r="AB29" s="56"/>
     </row>
     <row r="30" spans="1:31" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="56"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="N30" s="36" t="s">
+      <c r="A30" s="37"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="N30" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="O30" s="36" t="s">
+      <c r="O30" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="P30" s="37" t="s">
+      <c r="P30" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="Q30" s="36" t="s">
+      <c r="Q30" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="R30" s="36" t="s">
+      <c r="R30" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="S30" s="37" t="s">
+      <c r="S30" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="T30" s="36" t="s">
+      <c r="T30" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="U30" s="36" t="s">
+      <c r="U30" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="V30" s="37" t="s">
+      <c r="V30" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="W30" s="36" t="s">
+      <c r="W30" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="X30" s="36" t="s">
+      <c r="X30" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="Y30" s="37" t="s">
+      <c r="Y30" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="Z30" s="36" t="s">
+      <c r="Z30" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="AA30" s="36" t="s">
+      <c r="AA30" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="AB30" s="37" t="s">
+      <c r="AB30" s="43" t="s">
         <v>8</v>
       </c>
       <c r="AE30" s="2" t="s">
@@ -2452,12 +2811,12 @@
       </c>
     </row>
     <row r="31" spans="1:31" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="56"/>
-      <c r="C31" s="44" t="s">
+      <c r="A31" s="37"/>
+      <c r="C31" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
       <c r="F31" s="30">
         <v>-0.42799999999999999</v>
       </c>
@@ -2473,24 +2832,24 @@
       <c r="J31" s="30">
         <v>0.62</v>
       </c>
-      <c r="N31" s="36"/>
-      <c r="O31" s="36"/>
-      <c r="P31" s="37"/>
-      <c r="Q31" s="36"/>
-      <c r="R31" s="36"/>
-      <c r="S31" s="37"/>
-      <c r="T31" s="36"/>
-      <c r="U31" s="36"/>
-      <c r="V31" s="37"/>
-      <c r="W31" s="36"/>
-      <c r="X31" s="36"/>
-      <c r="Y31" s="37"/>
-      <c r="Z31" s="36"/>
-      <c r="AA31" s="36"/>
-      <c r="AB31" s="37"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="43"/>
+      <c r="Q31" s="52"/>
+      <c r="R31" s="52"/>
+      <c r="S31" s="43"/>
+      <c r="T31" s="52"/>
+      <c r="U31" s="52"/>
+      <c r="V31" s="43"/>
+      <c r="W31" s="52"/>
+      <c r="X31" s="52"/>
+      <c r="Y31" s="43"/>
+      <c r="Z31" s="52"/>
+      <c r="AA31" s="52"/>
+      <c r="AB31" s="43"/>
     </row>
     <row r="32" spans="1:31" s="1" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="56"/>
+      <c r="A32" s="37"/>
       <c r="F32" s="31" t="s">
         <v>34</v>
       </c>
@@ -2519,12 +2878,12 @@
       <c r="AD32" s="2"/>
     </row>
     <row r="33" spans="1:29" s="1" customFormat="1" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="56"/>
-      <c r="C33" s="45" t="s">
+      <c r="A33" s="37"/>
+      <c r="C33" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
       <c r="F33" s="31" t="s">
         <v>34</v>
       </c>
@@ -2552,11 +2911,11 @@
       <c r="AC33" s="2"/>
     </row>
     <row r="34" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="56"/>
-      <c r="C34" s="46" t="s">
+      <c r="A34" s="37"/>
+      <c r="C34" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="48" t="s">
+      <c r="D34" s="46" t="s">
         <v>12</v>
       </c>
       <c r="E34" s="9" t="s">
@@ -2587,9 +2946,9 @@
       <c r="Y34" s="11"/>
     </row>
     <row r="35" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="56"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="48"/>
+      <c r="A35" s="37"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="46"/>
       <c r="E35" s="9" t="s">
         <v>15</v>
       </c>
@@ -2618,9 +2977,9 @@
       <c r="Y35" s="11"/>
     </row>
     <row r="36" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="56"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="49" t="s">
+      <c r="A36" s="37"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="47" t="s">
         <v>17</v>
       </c>
       <c r="E36" s="13" t="s">
@@ -2651,9 +3010,9 @@
       <c r="Y36" s="11"/>
     </row>
     <row r="37" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="56"/>
-      <c r="C37" s="46"/>
-      <c r="D37" s="49"/>
+      <c r="A37" s="37"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="47"/>
       <c r="E37" s="13" t="s">
         <v>19</v>
       </c>
@@ -2682,9 +3041,9 @@
       <c r="Y37" s="11"/>
     </row>
     <row r="38" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="56"/>
-      <c r="C38" s="46"/>
-      <c r="D38" s="50" t="s">
+      <c r="A38" s="37"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="48" t="s">
         <v>20</v>
       </c>
       <c r="E38" s="15" t="s">
@@ -2715,9 +3074,9 @@
       <c r="Y38" s="11"/>
     </row>
     <row r="39" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="56"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="51"/>
+      <c r="A39" s="37"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="49"/>
       <c r="E39" s="16" t="s">
         <v>22</v>
       </c>
@@ -2752,14 +3111,14 @@
     <row r="40" spans="1:29" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="42" spans="1:29" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="55" t="s">
+      <c r="A42" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="43" t="s">
+      <c r="C42" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="D42" s="43"/>
-      <c r="E42" s="43"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="54"/>
       <c r="F42" s="3" t="s">
         <v>2</v>
       </c>
@@ -2778,90 +3137,90 @@
       <c r="L42" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N42" s="52" t="s">
+      <c r="N42" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="O42" s="45"/>
-      <c r="P42" s="53"/>
-      <c r="Q42" s="52" t="s">
+      <c r="O42" s="39"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="R42" s="45"/>
-      <c r="S42" s="53"/>
-      <c r="T42" s="52" t="s">
+      <c r="R42" s="39"/>
+      <c r="S42" s="40"/>
+      <c r="T42" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="U42" s="45"/>
-      <c r="V42" s="53"/>
-      <c r="W42" s="52" t="s">
+      <c r="U42" s="39"/>
+      <c r="V42" s="40"/>
+      <c r="W42" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="X42" s="45"/>
-      <c r="Y42" s="53"/>
-      <c r="Z42" s="38" t="s">
+      <c r="X42" s="39"/>
+      <c r="Y42" s="40"/>
+      <c r="Z42" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="AA42" s="39"/>
-      <c r="AB42" s="39"/>
+      <c r="AA42" s="56"/>
+      <c r="AB42" s="56"/>
     </row>
     <row r="43" spans="1:29" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="56"/>
-      <c r="C43" s="54"/>
-      <c r="D43" s="54"/>
-      <c r="E43" s="54"/>
-      <c r="N43" s="36" t="s">
+      <c r="A43" s="37"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="N43" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="O43" s="36" t="s">
+      <c r="O43" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="P43" s="37" t="s">
+      <c r="P43" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="Q43" s="36" t="s">
+      <c r="Q43" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="R43" s="36" t="s">
+      <c r="R43" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="S43" s="37" t="s">
+      <c r="S43" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="T43" s="36" t="s">
+      <c r="T43" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="U43" s="36" t="s">
+      <c r="U43" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="V43" s="37" t="s">
+      <c r="V43" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="W43" s="36" t="s">
+      <c r="W43" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="X43" s="36" t="s">
+      <c r="X43" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="Y43" s="37" t="s">
+      <c r="Y43" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="Z43" s="36" t="s">
+      <c r="Z43" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="AA43" s="36" t="s">
+      <c r="AA43" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="AB43" s="37" t="s">
+      <c r="AB43" s="43" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="56"/>
-      <c r="C44" s="44" t="s">
+      <c r="A44" s="37"/>
+      <c r="C44" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="D44" s="44"/>
-      <c r="E44" s="44"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="51"/>
       <c r="F44" s="4">
         <v>-0.32900000000000001</v>
       </c>
@@ -2877,24 +3236,24 @@
       <c r="J44" s="4">
         <v>0.61</v>
       </c>
-      <c r="N44" s="36"/>
-      <c r="O44" s="36"/>
-      <c r="P44" s="37"/>
-      <c r="Q44" s="36"/>
-      <c r="R44" s="36"/>
-      <c r="S44" s="37"/>
-      <c r="T44" s="36"/>
-      <c r="U44" s="36"/>
-      <c r="V44" s="37"/>
-      <c r="W44" s="36"/>
-      <c r="X44" s="36"/>
-      <c r="Y44" s="37"/>
-      <c r="Z44" s="36"/>
-      <c r="AA44" s="36"/>
-      <c r="AB44" s="37"/>
+      <c r="N44" s="52"/>
+      <c r="O44" s="52"/>
+      <c r="P44" s="43"/>
+      <c r="Q44" s="52"/>
+      <c r="R44" s="52"/>
+      <c r="S44" s="43"/>
+      <c r="T44" s="52"/>
+      <c r="U44" s="52"/>
+      <c r="V44" s="43"/>
+      <c r="W44" s="52"/>
+      <c r="X44" s="52"/>
+      <c r="Y44" s="43"/>
+      <c r="Z44" s="52"/>
+      <c r="AA44" s="52"/>
+      <c r="AB44" s="43"/>
     </row>
     <row r="45" spans="1:29" s="1" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="56"/>
+      <c r="A45" s="37"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
@@ -2912,12 +3271,12 @@
       <c r="AC45" s="2"/>
     </row>
     <row r="46" spans="1:29" s="1" customFormat="1" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="56"/>
-      <c r="C46" s="45" t="s">
+      <c r="A46" s="37"/>
+      <c r="C46" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D46" s="45"/>
-      <c r="E46" s="45"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
@@ -2935,11 +3294,11 @@
       <c r="AC46" s="2"/>
     </row>
     <row r="47" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="56"/>
-      <c r="C47" s="46" t="s">
+      <c r="A47" s="37"/>
+      <c r="C47" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="D47" s="48" t="s">
+      <c r="D47" s="46" t="s">
         <v>12</v>
       </c>
       <c r="E47" s="9" t="s">
@@ -2960,9 +3319,9 @@
       <c r="Y47" s="11"/>
     </row>
     <row r="48" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="56"/>
-      <c r="C48" s="46"/>
-      <c r="D48" s="48"/>
+      <c r="A48" s="37"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="46"/>
       <c r="E48" s="9" t="s">
         <v>15</v>
       </c>
@@ -2981,9 +3340,9 @@
       <c r="Y48" s="11"/>
     </row>
     <row r="49" spans="1:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="56"/>
-      <c r="C49" s="46"/>
-      <c r="D49" s="49" t="s">
+      <c r="A49" s="37"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="47" t="s">
         <v>17</v>
       </c>
       <c r="E49" s="13" t="s">
@@ -3004,9 +3363,9 @@
       <c r="Y49" s="11"/>
     </row>
     <row r="50" spans="1:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="56"/>
-      <c r="C50" s="46"/>
-      <c r="D50" s="49"/>
+      <c r="A50" s="37"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="47"/>
       <c r="E50" s="13" t="s">
         <v>19</v>
       </c>
@@ -3025,9 +3384,9 @@
       <c r="Y50" s="11"/>
     </row>
     <row r="51" spans="1:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="56"/>
-      <c r="C51" s="46"/>
-      <c r="D51" s="50" t="s">
+      <c r="A51" s="37"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="48" t="s">
         <v>20</v>
       </c>
       <c r="E51" s="15" t="s">
@@ -3048,9 +3407,9 @@
       <c r="Y51" s="11"/>
     </row>
     <row r="52" spans="1:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="56"/>
-      <c r="C52" s="47"/>
-      <c r="D52" s="51"/>
+      <c r="A52" s="37"/>
+      <c r="C52" s="45"/>
+      <c r="D52" s="49"/>
       <c r="E52" s="16" t="s">
         <v>22</v>
       </c>
@@ -3074,144 +3433,108 @@
     </row>
     <row r="53" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="55" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="C55" s="41" t="s">
+      <c r="C55" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="D55" s="42"/>
-      <c r="E55" s="42"/>
-      <c r="F55" s="42"/>
-      <c r="G55" s="42"/>
-      <c r="H55" s="42"/>
-      <c r="I55" s="42"/>
-      <c r="J55" s="42"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="36"/>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="C56" s="42"/>
-      <c r="D56" s="42"/>
-      <c r="E56" s="42"/>
-      <c r="F56" s="42"/>
-      <c r="G56" s="42"/>
-      <c r="H56" s="42"/>
-      <c r="I56" s="42"/>
-      <c r="J56" s="42"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="36"/>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="C57" s="42"/>
-      <c r="D57" s="42"/>
-      <c r="E57" s="42"/>
-      <c r="F57" s="42"/>
-      <c r="G57" s="42"/>
-      <c r="H57" s="42"/>
-      <c r="I57" s="42"/>
-      <c r="J57" s="42"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="36"/>
+      <c r="J57" s="36"/>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="C58" s="42"/>
-      <c r="D58" s="42"/>
-      <c r="E58" s="42"/>
-      <c r="F58" s="42"/>
-      <c r="G58" s="42"/>
-      <c r="H58" s="42"/>
-      <c r="I58" s="42"/>
-      <c r="J58" s="42"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="36"/>
+      <c r="J58" s="36"/>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="C59" s="42"/>
-      <c r="D59" s="42"/>
-      <c r="E59" s="42"/>
-      <c r="F59" s="42"/>
-      <c r="G59" s="42"/>
-      <c r="H59" s="42"/>
-      <c r="I59" s="42"/>
-      <c r="J59" s="42"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="36"/>
+      <c r="J59" s="36"/>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="C60" s="42"/>
-      <c r="D60" s="42"/>
-      <c r="E60" s="42"/>
-      <c r="F60" s="42"/>
-      <c r="G60" s="42"/>
-      <c r="H60" s="42"/>
-      <c r="I60" s="42"/>
-      <c r="J60" s="42"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="36"/>
+      <c r="J60" s="36"/>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="C61" s="42"/>
-      <c r="D61" s="42"/>
-      <c r="E61" s="42"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="42"/>
-      <c r="H61" s="42"/>
-      <c r="I61" s="42"/>
-      <c r="J61" s="42"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="36"/>
+      <c r="J61" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="118">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A3:A13"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:C13"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="A16:A26"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:C26"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="T17:T18"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="V30:V31"/>
-    <mergeCell ref="W30:W31"/>
-    <mergeCell ref="Y30:Y31"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="A29:A39"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="Q29:S29"/>
-    <mergeCell ref="T29:V29"/>
-    <mergeCell ref="W29:Y29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="P30:P31"/>
-    <mergeCell ref="Q30:Q31"/>
-    <mergeCell ref="S30:S31"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="S43:S44"/>
-    <mergeCell ref="T43:T44"/>
-    <mergeCell ref="V43:V44"/>
-    <mergeCell ref="C34:C39"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="A42:A52"/>
-    <mergeCell ref="N42:P42"/>
-    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="Z43:Z44"/>
+    <mergeCell ref="AA43:AA44"/>
+    <mergeCell ref="AB43:AB44"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="W43:W44"/>
+    <mergeCell ref="Y43:Y44"/>
+    <mergeCell ref="W42:Y42"/>
+    <mergeCell ref="V17:V18"/>
+    <mergeCell ref="W17:W18"/>
+    <mergeCell ref="Y17:Y18"/>
+    <mergeCell ref="W16:Y16"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="X43:X44"/>
+    <mergeCell ref="X30:X31"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="Z16:AB16"/>
+    <mergeCell ref="Z29:AB29"/>
+    <mergeCell ref="Z42:AB42"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="Z17:Z18"/>
+    <mergeCell ref="AA17:AA18"/>
+    <mergeCell ref="AB17:AB18"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="Z30:Z31"/>
+    <mergeCell ref="AA30:AA31"/>
+    <mergeCell ref="AB30:AB31"/>
     <mergeCell ref="R17:R18"/>
     <mergeCell ref="U17:U18"/>
     <mergeCell ref="U30:U31"/>
@@ -3236,35 +3559,71 @@
     <mergeCell ref="N43:N44"/>
     <mergeCell ref="P43:P44"/>
     <mergeCell ref="U43:U44"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="Z16:AB16"/>
-    <mergeCell ref="Z29:AB29"/>
-    <mergeCell ref="Z42:AB42"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="Z17:Z18"/>
-    <mergeCell ref="AA17:AA18"/>
-    <mergeCell ref="AB17:AB18"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="W43:W44"/>
-    <mergeCell ref="Y43:Y44"/>
-    <mergeCell ref="W42:Y42"/>
-    <mergeCell ref="V17:V18"/>
-    <mergeCell ref="W17:W18"/>
-    <mergeCell ref="Y17:Y18"/>
-    <mergeCell ref="W16:Y16"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="X43:X44"/>
-    <mergeCell ref="X30:X31"/>
-    <mergeCell ref="Z30:Z31"/>
-    <mergeCell ref="AA30:AA31"/>
-    <mergeCell ref="AB30:AB31"/>
-    <mergeCell ref="Z43:Z44"/>
-    <mergeCell ref="AA43:AA44"/>
-    <mergeCell ref="AB43:AB44"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="S43:S44"/>
+    <mergeCell ref="T43:T44"/>
+    <mergeCell ref="V43:V44"/>
+    <mergeCell ref="C34:C39"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="A42:A52"/>
+    <mergeCell ref="N42:P42"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="V30:V31"/>
+    <mergeCell ref="W30:W31"/>
+    <mergeCell ref="Y30:Y31"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="A29:A39"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="Q29:S29"/>
+    <mergeCell ref="T29:V29"/>
+    <mergeCell ref="W29:Y29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="P30:P31"/>
+    <mergeCell ref="Q30:Q31"/>
+    <mergeCell ref="S30:S31"/>
+    <mergeCell ref="A16:A26"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:C26"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A3:A13"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -3544,10 +3903,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB46737-11B7-4114-AD1A-F9F7BF25B279}">
-  <dimension ref="B1:H39"/>
+  <dimension ref="B1:P40"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F39"/>
+    <sheetView tabSelected="1" topLeftCell="J3" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4:L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3556,258 +3915,461 @@
     <col min="4" max="4" width="49.6640625" customWidth="1"/>
     <col min="6" max="6" width="53.109375" customWidth="1"/>
     <col min="8" max="8" width="57.6640625" customWidth="1"/>
+    <col min="10" max="10" width="48.44140625" customWidth="1"/>
+    <col min="12" max="12" width="44.5546875" customWidth="1"/>
+    <col min="14" max="14" width="54.6640625" customWidth="1"/>
+    <col min="15" max="15" width="8" customWidth="1"/>
+    <col min="16" max="16" width="45.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B1" s="32" t="s">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1" t="s">
+        <v>104</v>
+      </c>
+      <c r="P1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D2" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F2" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H2" s="33" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="59" t="s">
+      <c r="J2" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="L2" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="N2" t="s">
+        <v>106</v>
+      </c>
+      <c r="P2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D4" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="F4" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="H3" s="59" t="s">
+      <c r="H4" s="59" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="59"/>
-      <c r="D4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="H4" s="60"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="J4" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="L4" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="N4" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="P4" s="59" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="59"/>
       <c r="D5" s="60"/>
       <c r="F5" s="60"/>
       <c r="H5" s="60"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="J5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="P5" s="60"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="59"/>
       <c r="D6" s="60"/>
       <c r="F6" s="60"/>
       <c r="H6" s="60"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="J6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="P6" s="60"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="59"/>
       <c r="D7" s="60"/>
       <c r="F7" s="60"/>
       <c r="H7" s="60"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="J7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="N7" s="60"/>
+      <c r="P7" s="60"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="59"/>
       <c r="D8" s="60"/>
       <c r="F8" s="60"/>
       <c r="H8" s="60"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="J8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="N8" s="60"/>
+      <c r="P8" s="60"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="59"/>
       <c r="D9" s="60"/>
       <c r="F9" s="60"/>
       <c r="H9" s="60"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="J9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="N9" s="60"/>
+      <c r="P9" s="60"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="59"/>
       <c r="D10" s="60"/>
       <c r="F10" s="60"/>
       <c r="H10" s="60"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="J10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="N10" s="60"/>
+      <c r="P10" s="60"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="59"/>
       <c r="D11" s="60"/>
       <c r="F11" s="60"/>
       <c r="H11" s="60"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="J11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="N11" s="60"/>
+      <c r="P11" s="60"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="59"/>
       <c r="D12" s="60"/>
       <c r="F12" s="60"/>
       <c r="H12" s="60"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="J12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="N12" s="60"/>
+      <c r="P12" s="60"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13" s="59"/>
       <c r="D13" s="60"/>
       <c r="F13" s="60"/>
       <c r="H13" s="60"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="J13" s="60"/>
+      <c r="L13" s="60"/>
+      <c r="N13" s="60"/>
+      <c r="P13" s="60"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="59"/>
       <c r="D14" s="60"/>
       <c r="F14" s="60"/>
       <c r="H14" s="60"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="J14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="N14" s="60"/>
+      <c r="P14" s="60"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="59"/>
       <c r="D15" s="60"/>
       <c r="F15" s="60"/>
       <c r="H15" s="60"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="J15" s="60"/>
+      <c r="L15" s="60"/>
+      <c r="N15" s="60"/>
+      <c r="P15" s="60"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="59"/>
       <c r="D16" s="60"/>
       <c r="F16" s="60"/>
       <c r="H16" s="60"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="J16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="N16" s="60"/>
+      <c r="P16" s="60"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17" s="59"/>
       <c r="D17" s="60"/>
       <c r="F17" s="60"/>
       <c r="H17" s="60"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="J17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="N17" s="60"/>
+      <c r="P17" s="60"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B18" s="59"/>
       <c r="D18" s="60"/>
       <c r="F18" s="60"/>
       <c r="H18" s="60"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="J18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="N18" s="60"/>
+      <c r="P18" s="60"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B19" s="59"/>
       <c r="D19" s="60"/>
       <c r="F19" s="60"/>
       <c r="H19" s="60"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="J19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="P19" s="60"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20" s="59"/>
       <c r="D20" s="60"/>
       <c r="F20" s="60"/>
       <c r="H20" s="60"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="J20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="N20" s="60"/>
+      <c r="P20" s="60"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B21" s="59"/>
       <c r="D21" s="60"/>
       <c r="F21" s="60"/>
       <c r="H21" s="60"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="J21" s="60"/>
+      <c r="L21" s="60"/>
+      <c r="N21" s="60"/>
+      <c r="P21" s="60"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B22" s="59"/>
       <c r="D22" s="60"/>
       <c r="F22" s="60"/>
       <c r="H22" s="60"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="J22" s="60"/>
+      <c r="L22" s="60"/>
+      <c r="N22" s="60"/>
+      <c r="P22" s="60"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B23" s="59"/>
       <c r="D23" s="60"/>
       <c r="F23" s="60"/>
       <c r="H23" s="60"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="J23" s="60"/>
+      <c r="L23" s="60"/>
+      <c r="N23" s="60"/>
+      <c r="P23" s="60"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B24" s="59"/>
       <c r="D24" s="60"/>
       <c r="F24" s="60"/>
       <c r="H24" s="60"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="J24" s="60"/>
+      <c r="L24" s="60"/>
+      <c r="N24" s="60"/>
+      <c r="P24" s="60"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B25" s="59"/>
       <c r="D25" s="60"/>
       <c r="F25" s="60"/>
       <c r="H25" s="60"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="J25" s="60"/>
+      <c r="L25" s="60"/>
+      <c r="N25" s="60"/>
+      <c r="P25" s="60"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B26" s="59"/>
       <c r="D26" s="60"/>
       <c r="F26" s="60"/>
       <c r="H26" s="60"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="J26" s="60"/>
+      <c r="L26" s="60"/>
+      <c r="N26" s="60"/>
+      <c r="P26" s="60"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B27" s="59"/>
       <c r="D27" s="60"/>
       <c r="F27" s="60"/>
       <c r="H27" s="60"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="J27" s="60"/>
+      <c r="L27" s="60"/>
+      <c r="N27" s="60"/>
+      <c r="P27" s="60"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B28" s="59"/>
       <c r="D28" s="60"/>
       <c r="F28" s="60"/>
       <c r="H28" s="60"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="J28" s="60"/>
+      <c r="L28" s="60"/>
+      <c r="N28" s="60"/>
+      <c r="P28" s="60"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B29" s="59"/>
       <c r="D29" s="60"/>
       <c r="F29" s="60"/>
       <c r="H29" s="60"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="J29" s="60"/>
+      <c r="L29" s="60"/>
+      <c r="N29" s="60"/>
+      <c r="P29" s="60"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B30" s="59"/>
       <c r="D30" s="60"/>
       <c r="F30" s="60"/>
       <c r="H30" s="60"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="J30" s="60"/>
+      <c r="L30" s="60"/>
+      <c r="N30" s="60"/>
+      <c r="P30" s="60"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B31" s="59"/>
       <c r="D31" s="60"/>
       <c r="F31" s="60"/>
       <c r="H31" s="60"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="J31" s="60"/>
+      <c r="L31" s="60"/>
+      <c r="N31" s="60"/>
+      <c r="P31" s="60"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B32" s="59"/>
       <c r="D32" s="60"/>
       <c r="F32" s="60"/>
       <c r="H32" s="60"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="J32" s="60"/>
+      <c r="L32" s="60"/>
+      <c r="N32" s="60"/>
+      <c r="P32" s="60"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B33" s="59"/>
       <c r="D33" s="60"/>
       <c r="F33" s="60"/>
       <c r="H33" s="60"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="J33" s="60"/>
+      <c r="L33" s="60"/>
+      <c r="N33" s="60"/>
+      <c r="P33" s="60"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B34" s="59"/>
       <c r="D34" s="60"/>
       <c r="F34" s="60"/>
       <c r="H34" s="60"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="J34" s="60"/>
+      <c r="L34" s="60"/>
+      <c r="N34" s="60"/>
+      <c r="P34" s="60"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B35" s="59"/>
       <c r="D35" s="60"/>
       <c r="F35" s="60"/>
       <c r="H35" s="60"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="J35" s="60"/>
+      <c r="L35" s="60"/>
+      <c r="N35" s="60"/>
+      <c r="P35" s="60"/>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B36" s="59"/>
       <c r="D36" s="60"/>
       <c r="F36" s="60"/>
       <c r="H36" s="60"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="J36" s="60"/>
+      <c r="L36" s="60"/>
+      <c r="N36" s="60"/>
+      <c r="P36" s="60"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B37" s="59"/>
       <c r="D37" s="60"/>
       <c r="F37" s="60"/>
       <c r="H37" s="60"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="J37" s="60"/>
+      <c r="L37" s="60"/>
+      <c r="N37" s="60"/>
+      <c r="P37" s="60"/>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B38" s="59"/>
       <c r="D38" s="60"/>
       <c r="F38" s="60"/>
       <c r="H38" s="60"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="J38" s="60"/>
+      <c r="L38" s="60"/>
+      <c r="N38" s="60"/>
+      <c r="P38" s="60"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B39" s="59"/>
       <c r="D39" s="60"/>
       <c r="F39" s="60"/>
       <c r="H39" s="60"/>
+      <c r="J39" s="60"/>
+      <c r="L39" s="60"/>
+      <c r="N39" s="60"/>
+      <c r="P39" s="60"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B40" s="59"/>
+      <c r="D40" s="60"/>
+      <c r="F40" s="60"/>
+      <c r="H40" s="60"/>
+      <c r="J40" s="60"/>
+      <c r="L40" s="60"/>
+      <c r="N40" s="60"/>
+      <c r="P40" s="60"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B3:B39"/>
-    <mergeCell ref="D3:D39"/>
-    <mergeCell ref="F3:F39"/>
-    <mergeCell ref="H3:H39"/>
+  <mergeCells count="8">
+    <mergeCell ref="L4:L40"/>
+    <mergeCell ref="N4:N40"/>
+    <mergeCell ref="P4:P40"/>
+    <mergeCell ref="B4:B40"/>
+    <mergeCell ref="D4:D40"/>
+    <mergeCell ref="F4:F40"/>
+    <mergeCell ref="H4:H40"/>
+    <mergeCell ref="J4:J40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>

--- a/Comparison/results.xlsx
+++ b/Comparison/results.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/df5ed6e2797f344c/文档/Github Repo/PSS---share/Comparison/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{2F6FCBFA-FEC1-477F-B679-7A847FAECBF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD752668-F3A6-49F7-88FA-1AB26ADF8374}"/>
+  <xr:revisionPtr revIDLastSave="109" documentId="13_ncr:1_{2F6FCBFA-FEC1-477F-B679-7A847FAECBF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53A0A828-29AD-437C-BFB3-3716D17C8330}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{89A85811-764B-44E1-91C5-C8E51A960FF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="scenarios" sheetId="3" r:id="rId3"/>
+    <sheet name="bias" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="119">
   <si>
     <t>source: C:\Users\liubing8\OneDrive - Merck Sharp &amp; Dohme LLC\Documents\Github Repos\PSS---share\Simulation Study\WIP - Bing\resultprint\cities simulator</t>
   </si>
@@ -1076,6 +1077,33 @@
 rate_dc_ae_expt = 0.08
 rate_dc_ae = c(rate_dc_ae_ctrl, rate_dc_ae_expt)</t>
     </r>
+  </si>
+  <si>
+    <t>trmt effect</t>
+  </si>
+  <si>
+    <t>mod</t>
+  </si>
+  <si>
+    <t>large</t>
+  </si>
+  <si>
+    <t>very large</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>scen B</t>
+  </si>
+  <si>
+    <t>scen C</t>
+  </si>
+  <si>
+    <t>output&amp;scen id</t>
+  </si>
+  <si>
+    <t>JSM id</t>
   </si>
 </sst>
 </file>
@@ -1411,7 +1439,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1514,69 +1542,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1589,7 +1618,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="20% - Accent4" xfId="5" builtinId="42"/>
@@ -1613,6 +1647,187 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>144781</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6926581</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>3245502</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75312D0F-1243-1A74-10AD-A6C8F70C897E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1699261" y="312420"/>
+          <a:ext cx="6781800" cy="3115962"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>116388</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7071360</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>3276891</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC7004E9-DD80-0D73-6A28-F20A1F8A6BA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7962900" y="299268"/>
+          <a:ext cx="6911340" cy="3160503"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>167641</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>181303</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6789421</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>3261361</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F81BF29-337A-67BB-2402-95A064EA575D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="830581" y="3762703"/>
+          <a:ext cx="6621780" cy="3080058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7222068</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>3223260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5504FBDF-6DBE-AC49-114C-3A1157FBAB49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7863840" y="3794760"/>
+          <a:ext cx="7161108" cy="3009900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1965,31 +2180,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
     </row>
     <row r="2" spans="1:32" ht="42.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:32" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
       <c r="F3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2008,44 +2223,44 @@
       <c r="L3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="38" t="s">
+      <c r="N3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="39"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="38" t="s">
+      <c r="O3" s="40"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="R3" s="39"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="38" t="s">
+      <c r="R3" s="40"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="U3" s="39"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="38" t="s">
+      <c r="U3" s="40"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="55" t="s">
+      <c r="X3" s="40"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="AA3" s="56"/>
-      <c r="AB3" s="56"/>
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="44"/>
     </row>
     <row r="4" spans="1:32" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="37"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
+      <c r="A4" s="57"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
       <c r="N4" s="42" t="s">
         <v>88</v>
       </c>
       <c r="O4" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="P4" s="43" t="s">
+      <c r="P4" s="38" t="s">
         <v>8</v>
       </c>
       <c r="Q4" s="42" t="s">
@@ -2054,7 +2269,7 @@
       <c r="R4" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="S4" s="43" t="s">
+      <c r="S4" s="38" t="s">
         <v>8</v>
       </c>
       <c r="T4" s="42" t="s">
@@ -2063,7 +2278,7 @@
       <c r="U4" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="V4" s="43" t="s">
+      <c r="V4" s="38" t="s">
         <v>8</v>
       </c>
       <c r="W4" s="42" t="s">
@@ -2072,26 +2287,26 @@
       <c r="X4" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="Y4" s="43" t="s">
+      <c r="Y4" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="Z4" s="52" t="s">
+      <c r="Z4" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="AA4" s="52" t="s">
+      <c r="AA4" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="AB4" s="43" t="s">
+      <c r="AB4" s="38" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="37"/>
-      <c r="C5" s="51" t="s">
+      <c r="A5" s="57"/>
+      <c r="C5" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
       <c r="F5" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -2109,22 +2324,22 @@
       </c>
       <c r="N5" s="42"/>
       <c r="O5" s="42"/>
-      <c r="P5" s="43"/>
+      <c r="P5" s="38"/>
       <c r="Q5" s="42"/>
       <c r="R5" s="42"/>
-      <c r="S5" s="43"/>
+      <c r="S5" s="38"/>
       <c r="T5" s="42"/>
       <c r="U5" s="42"/>
-      <c r="V5" s="43"/>
+      <c r="V5" s="38"/>
       <c r="W5" s="42"/>
       <c r="X5" s="42"/>
-      <c r="Y5" s="43"/>
-      <c r="Z5" s="52"/>
-      <c r="AA5" s="52"/>
-      <c r="AB5" s="43"/>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="37"/>
+      <c r="AA5" s="37"/>
+      <c r="AB5" s="38"/>
     </row>
     <row r="6" spans="1:32" s="1" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="37"/>
+      <c r="A6" s="57"/>
       <c r="F6" s="5" t="s">
         <v>34</v>
       </c>
@@ -2153,12 +2368,12 @@
       <c r="AB6" s="34"/>
     </row>
     <row r="7" spans="1:32" s="1" customFormat="1" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="37"/>
-      <c r="C7" s="39" t="s">
+      <c r="A7" s="57"/>
+      <c r="C7" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
       <c r="F7" s="5" t="s">
         <v>34</v>
       </c>
@@ -2184,11 +2399,11 @@
       <c r="Y7" s="7"/>
     </row>
     <row r="8" spans="1:32" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="37"/>
-      <c r="C8" s="44" t="s">
+      <c r="A8" s="57"/>
+      <c r="C8" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="51" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="9" t="s">
@@ -2222,9 +2437,9 @@
       </c>
     </row>
     <row r="9" spans="1:32" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="37"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="46"/>
+      <c r="A9" s="57"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="51"/>
       <c r="E9" s="9" t="s">
         <v>15</v>
       </c>
@@ -2257,9 +2472,9 @@
       </c>
     </row>
     <row r="10" spans="1:32" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="37"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="47" t="s">
+      <c r="A10" s="57"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="52" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="13" t="s">
@@ -2290,9 +2505,9 @@
       <c r="Y10" s="11"/>
     </row>
     <row r="11" spans="1:32" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="37"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="47"/>
+      <c r="A11" s="57"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="52"/>
       <c r="E11" s="13" t="s">
         <v>19</v>
       </c>
@@ -2321,9 +2536,9 @@
       <c r="Y11" s="11"/>
     </row>
     <row r="12" spans="1:32" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="37"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="48" t="s">
+      <c r="A12" s="57"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="53" t="s">
         <v>20</v>
       </c>
       <c r="E12" s="15" t="s">
@@ -2354,9 +2569,9 @@
       <c r="Y12" s="11"/>
     </row>
     <row r="13" spans="1:32" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="37"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="49"/>
+      <c r="A13" s="57"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="54"/>
       <c r="E13" s="16" t="s">
         <v>22</v>
       </c>
@@ -2391,14 +2606,14 @@
     <row r="14" spans="1:32" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="1:32" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="50" t="s">
+      <c r="A16" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
       <c r="F16" s="3" t="s">
         <v>2</v>
       </c>
@@ -2417,90 +2632,90 @@
       <c r="L16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N16" s="38" t="s">
+      <c r="N16" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="O16" s="39"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="38" t="s">
+      <c r="O16" s="40"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="R16" s="39"/>
-      <c r="S16" s="40"/>
-      <c r="T16" s="38" t="s">
+      <c r="R16" s="40"/>
+      <c r="S16" s="41"/>
+      <c r="T16" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="U16" s="39"/>
-      <c r="V16" s="40"/>
-      <c r="W16" s="38" t="s">
+      <c r="U16" s="40"/>
+      <c r="V16" s="41"/>
+      <c r="W16" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="X16" s="39"/>
-      <c r="Y16" s="40"/>
-      <c r="Z16" s="55" t="s">
+      <c r="X16" s="40"/>
+      <c r="Y16" s="41"/>
+      <c r="Z16" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="AA16" s="56"/>
-      <c r="AB16" s="56"/>
+      <c r="AA16" s="44"/>
+      <c r="AB16" s="44"/>
     </row>
     <row r="17" spans="1:31" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="37"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
+      <c r="A17" s="57"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
       <c r="N17" s="42" t="s">
         <v>88</v>
       </c>
       <c r="O17" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="P17" s="52" t="s">
+      <c r="P17" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="Q17" s="52" t="s">
+      <c r="Q17" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="R17" s="52" t="s">
+      <c r="R17" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="S17" s="43" t="s">
+      <c r="S17" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="T17" s="52" t="s">
+      <c r="T17" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="U17" s="52" t="s">
+      <c r="U17" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="V17" s="43" t="s">
+      <c r="V17" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="W17" s="52" t="s">
+      <c r="W17" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="X17" s="52" t="s">
+      <c r="X17" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="Y17" s="43" t="s">
+      <c r="Y17" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="Z17" s="52" t="s">
+      <c r="Z17" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="AA17" s="52" t="s">
+      <c r="AA17" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="AB17" s="43" t="s">
+      <c r="AB17" s="38" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="37"/>
-      <c r="C18" s="51" t="s">
+      <c r="A18" s="57"/>
+      <c r="C18" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -2508,22 +2723,22 @@
       <c r="J18" s="4"/>
       <c r="N18" s="42"/>
       <c r="O18" s="42"/>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="52"/>
-      <c r="R18" s="52"/>
-      <c r="S18" s="43"/>
-      <c r="T18" s="52"/>
-      <c r="U18" s="52"/>
-      <c r="V18" s="43"/>
-      <c r="W18" s="52"/>
-      <c r="X18" s="52"/>
-      <c r="Y18" s="43"/>
-      <c r="Z18" s="52"/>
-      <c r="AA18" s="52"/>
-      <c r="AB18" s="43"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="38"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="37"/>
+      <c r="Y18" s="38"/>
+      <c r="Z18" s="37"/>
+      <c r="AA18" s="37"/>
+      <c r="AB18" s="38"/>
     </row>
     <row r="19" spans="1:31" s="1" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="37"/>
+      <c r="A19" s="57"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -2541,12 +2756,12 @@
       <c r="AC19" s="2"/>
     </row>
     <row r="20" spans="1:31" s="1" customFormat="1" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="37"/>
-      <c r="C20" s="39" t="s">
+      <c r="A20" s="57"/>
+      <c r="C20" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
@@ -2564,11 +2779,11 @@
       <c r="AC20" s="2"/>
     </row>
     <row r="21" spans="1:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="37"/>
-      <c r="C21" s="44" t="s">
+      <c r="A21" s="57"/>
+      <c r="C21" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="46" t="s">
+      <c r="D21" s="51" t="s">
         <v>12</v>
       </c>
       <c r="E21" s="9" t="s">
@@ -2589,9 +2804,9 @@
       <c r="Y21" s="11"/>
     </row>
     <row r="22" spans="1:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="37"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="46"/>
+      <c r="A22" s="57"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="51"/>
       <c r="E22" s="9" t="s">
         <v>15</v>
       </c>
@@ -2610,9 +2825,9 @@
       <c r="Y22" s="11"/>
     </row>
     <row r="23" spans="1:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="37"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="47" t="s">
+      <c r="A23" s="57"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="52" t="s">
         <v>17</v>
       </c>
       <c r="E23" s="13" t="s">
@@ -2633,9 +2848,9 @@
       <c r="Y23" s="11"/>
     </row>
     <row r="24" spans="1:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="37"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="47"/>
+      <c r="A24" s="57"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="52"/>
       <c r="E24" s="13" t="s">
         <v>19</v>
       </c>
@@ -2654,9 +2869,9 @@
       <c r="Y24" s="11"/>
     </row>
     <row r="25" spans="1:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="37"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="48" t="s">
+      <c r="A25" s="57"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="53" t="s">
         <v>20</v>
       </c>
       <c r="E25" s="15" t="s">
@@ -2677,9 +2892,9 @@
       <c r="Y25" s="11"/>
     </row>
     <row r="26" spans="1:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="37"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="49"/>
+      <c r="A26" s="57"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="54"/>
       <c r="E26" s="16" t="s">
         <v>22</v>
       </c>
@@ -2704,14 +2919,14 @@
     <row r="27" spans="1:31" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="29" spans="1:31" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="54" t="s">
+      <c r="C29" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
       <c r="F29" s="3" t="s">
         <v>2</v>
       </c>
@@ -2730,80 +2945,80 @@
       <c r="L29" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N29" s="38" t="s">
+      <c r="N29" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="O29" s="39"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="38" t="s">
+      <c r="O29" s="40"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="R29" s="39"/>
-      <c r="S29" s="40"/>
-      <c r="T29" s="38" t="s">
+      <c r="R29" s="40"/>
+      <c r="S29" s="41"/>
+      <c r="T29" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="U29" s="39"/>
-      <c r="V29" s="40"/>
-      <c r="W29" s="38" t="s">
+      <c r="U29" s="40"/>
+      <c r="V29" s="41"/>
+      <c r="W29" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="X29" s="39"/>
-      <c r="Y29" s="40"/>
-      <c r="Z29" s="55" t="s">
+      <c r="X29" s="40"/>
+      <c r="Y29" s="41"/>
+      <c r="Z29" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="AA29" s="56"/>
-      <c r="AB29" s="56"/>
+      <c r="AA29" s="44"/>
+      <c r="AB29" s="44"/>
     </row>
     <row r="30" spans="1:31" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="37"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="N30" s="52" t="s">
+      <c r="A30" s="57"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="N30" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="O30" s="52" t="s">
+      <c r="O30" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="P30" s="43" t="s">
+      <c r="P30" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="Q30" s="52" t="s">
+      <c r="Q30" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="R30" s="52" t="s">
+      <c r="R30" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="S30" s="43" t="s">
+      <c r="S30" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="T30" s="52" t="s">
+      <c r="T30" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="U30" s="52" t="s">
+      <c r="U30" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="V30" s="43" t="s">
+      <c r="V30" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="W30" s="52" t="s">
+      <c r="W30" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="X30" s="52" t="s">
+      <c r="X30" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="Y30" s="43" t="s">
+      <c r="Y30" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="Z30" s="52" t="s">
+      <c r="Z30" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="AA30" s="52" t="s">
+      <c r="AA30" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="AB30" s="43" t="s">
+      <c r="AB30" s="38" t="s">
         <v>8</v>
       </c>
       <c r="AE30" s="2" t="s">
@@ -2811,12 +3026,12 @@
       </c>
     </row>
     <row r="31" spans="1:31" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="37"/>
-      <c r="C31" s="51" t="s">
+      <c r="A31" s="57"/>
+      <c r="C31" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
       <c r="F31" s="30">
         <v>-0.42799999999999999</v>
       </c>
@@ -2832,24 +3047,24 @@
       <c r="J31" s="30">
         <v>0.62</v>
       </c>
-      <c r="N31" s="52"/>
-      <c r="O31" s="52"/>
-      <c r="P31" s="43"/>
-      <c r="Q31" s="52"/>
-      <c r="R31" s="52"/>
-      <c r="S31" s="43"/>
-      <c r="T31" s="52"/>
-      <c r="U31" s="52"/>
-      <c r="V31" s="43"/>
-      <c r="W31" s="52"/>
-      <c r="X31" s="52"/>
-      <c r="Y31" s="43"/>
-      <c r="Z31" s="52"/>
-      <c r="AA31" s="52"/>
-      <c r="AB31" s="43"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="37"/>
+      <c r="P31" s="38"/>
+      <c r="Q31" s="37"/>
+      <c r="R31" s="37"/>
+      <c r="S31" s="38"/>
+      <c r="T31" s="37"/>
+      <c r="U31" s="37"/>
+      <c r="V31" s="38"/>
+      <c r="W31" s="37"/>
+      <c r="X31" s="37"/>
+      <c r="Y31" s="38"/>
+      <c r="Z31" s="37"/>
+      <c r="AA31" s="37"/>
+      <c r="AB31" s="38"/>
     </row>
     <row r="32" spans="1:31" s="1" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="37"/>
+      <c r="A32" s="57"/>
       <c r="F32" s="31" t="s">
         <v>34</v>
       </c>
@@ -2878,12 +3093,12 @@
       <c r="AD32" s="2"/>
     </row>
     <row r="33" spans="1:29" s="1" customFormat="1" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="37"/>
-      <c r="C33" s="39" t="s">
+      <c r="A33" s="57"/>
+      <c r="C33" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
       <c r="F33" s="31" t="s">
         <v>34</v>
       </c>
@@ -2911,11 +3126,11 @@
       <c r="AC33" s="2"/>
     </row>
     <row r="34" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="37"/>
-      <c r="C34" s="44" t="s">
+      <c r="A34" s="57"/>
+      <c r="C34" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="46" t="s">
+      <c r="D34" s="51" t="s">
         <v>12</v>
       </c>
       <c r="E34" s="9" t="s">
@@ -2946,9 +3161,9 @@
       <c r="Y34" s="11"/>
     </row>
     <row r="35" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="37"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="46"/>
+      <c r="A35" s="57"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="51"/>
       <c r="E35" s="9" t="s">
         <v>15</v>
       </c>
@@ -2977,9 +3192,9 @@
       <c r="Y35" s="11"/>
     </row>
     <row r="36" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="37"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="47" t="s">
+      <c r="A36" s="57"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="52" t="s">
         <v>17</v>
       </c>
       <c r="E36" s="13" t="s">
@@ -3010,9 +3225,9 @@
       <c r="Y36" s="11"/>
     </row>
     <row r="37" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="37"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="47"/>
+      <c r="A37" s="57"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="52"/>
       <c r="E37" s="13" t="s">
         <v>19</v>
       </c>
@@ -3041,9 +3256,9 @@
       <c r="Y37" s="11"/>
     </row>
     <row r="38" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="37"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="48" t="s">
+      <c r="A38" s="57"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="53" t="s">
         <v>20</v>
       </c>
       <c r="E38" s="15" t="s">
@@ -3074,9 +3289,9 @@
       <c r="Y38" s="11"/>
     </row>
     <row r="39" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="37"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="49"/>
+      <c r="A39" s="57"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="54"/>
       <c r="E39" s="16" t="s">
         <v>22</v>
       </c>
@@ -3111,14 +3326,14 @@
     <row r="40" spans="1:29" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="42" spans="1:29" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="50" t="s">
+      <c r="A42" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="54" t="s">
+      <c r="C42" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="D42" s="54"/>
-      <c r="E42" s="54"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="47"/>
       <c r="F42" s="3" t="s">
         <v>2</v>
       </c>
@@ -3137,90 +3352,90 @@
       <c r="L42" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N42" s="38" t="s">
+      <c r="N42" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="O42" s="39"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="38" t="s">
+      <c r="O42" s="40"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="R42" s="39"/>
-      <c r="S42" s="40"/>
-      <c r="T42" s="38" t="s">
+      <c r="R42" s="40"/>
+      <c r="S42" s="41"/>
+      <c r="T42" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="U42" s="39"/>
-      <c r="V42" s="40"/>
-      <c r="W42" s="38" t="s">
+      <c r="U42" s="40"/>
+      <c r="V42" s="41"/>
+      <c r="W42" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="X42" s="39"/>
-      <c r="Y42" s="40"/>
-      <c r="Z42" s="55" t="s">
+      <c r="X42" s="40"/>
+      <c r="Y42" s="41"/>
+      <c r="Z42" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="AA42" s="56"/>
-      <c r="AB42" s="56"/>
+      <c r="AA42" s="44"/>
+      <c r="AB42" s="44"/>
     </row>
     <row r="43" spans="1:29" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="37"/>
-      <c r="C43" s="41"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="41"/>
-      <c r="N43" s="52" t="s">
+      <c r="A43" s="57"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="55"/>
+      <c r="N43" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="O43" s="52" t="s">
+      <c r="O43" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="P43" s="43" t="s">
+      <c r="P43" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="Q43" s="52" t="s">
+      <c r="Q43" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="R43" s="52" t="s">
+      <c r="R43" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="S43" s="43" t="s">
+      <c r="S43" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="T43" s="52" t="s">
+      <c r="T43" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="U43" s="52" t="s">
+      <c r="U43" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="V43" s="43" t="s">
+      <c r="V43" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="W43" s="52" t="s">
+      <c r="W43" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="X43" s="52" t="s">
+      <c r="X43" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="Y43" s="43" t="s">
+      <c r="Y43" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="Z43" s="52" t="s">
+      <c r="Z43" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="AA43" s="52" t="s">
+      <c r="AA43" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="AB43" s="43" t="s">
+      <c r="AB43" s="38" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="37"/>
-      <c r="C44" s="51" t="s">
+      <c r="A44" s="57"/>
+      <c r="C44" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D44" s="51"/>
-      <c r="E44" s="51"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="48"/>
       <c r="F44" s="4">
         <v>-0.32900000000000001</v>
       </c>
@@ -3236,24 +3451,24 @@
       <c r="J44" s="4">
         <v>0.61</v>
       </c>
-      <c r="N44" s="52"/>
-      <c r="O44" s="52"/>
-      <c r="P44" s="43"/>
-      <c r="Q44" s="52"/>
-      <c r="R44" s="52"/>
-      <c r="S44" s="43"/>
-      <c r="T44" s="52"/>
-      <c r="U44" s="52"/>
-      <c r="V44" s="43"/>
-      <c r="W44" s="52"/>
-      <c r="X44" s="52"/>
-      <c r="Y44" s="43"/>
-      <c r="Z44" s="52"/>
-      <c r="AA44" s="52"/>
-      <c r="AB44" s="43"/>
+      <c r="N44" s="37"/>
+      <c r="O44" s="37"/>
+      <c r="P44" s="38"/>
+      <c r="Q44" s="37"/>
+      <c r="R44" s="37"/>
+      <c r="S44" s="38"/>
+      <c r="T44" s="37"/>
+      <c r="U44" s="37"/>
+      <c r="V44" s="38"/>
+      <c r="W44" s="37"/>
+      <c r="X44" s="37"/>
+      <c r="Y44" s="38"/>
+      <c r="Z44" s="37"/>
+      <c r="AA44" s="37"/>
+      <c r="AB44" s="38"/>
     </row>
     <row r="45" spans="1:29" s="1" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="37"/>
+      <c r="A45" s="57"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
@@ -3271,12 +3486,12 @@
       <c r="AC45" s="2"/>
     </row>
     <row r="46" spans="1:29" s="1" customFormat="1" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="37"/>
-      <c r="C46" s="39" t="s">
+      <c r="A46" s="57"/>
+      <c r="C46" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
@@ -3294,11 +3509,11 @@
       <c r="AC46" s="2"/>
     </row>
     <row r="47" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="37"/>
-      <c r="C47" s="44" t="s">
+      <c r="A47" s="57"/>
+      <c r="C47" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="D47" s="46" t="s">
+      <c r="D47" s="51" t="s">
         <v>12</v>
       </c>
       <c r="E47" s="9" t="s">
@@ -3319,9 +3534,9 @@
       <c r="Y47" s="11"/>
     </row>
     <row r="48" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="37"/>
-      <c r="C48" s="44"/>
-      <c r="D48" s="46"/>
+      <c r="A48" s="57"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="51"/>
       <c r="E48" s="9" t="s">
         <v>15</v>
       </c>
@@ -3340,9 +3555,9 @@
       <c r="Y48" s="11"/>
     </row>
     <row r="49" spans="1:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="37"/>
-      <c r="C49" s="44"/>
-      <c r="D49" s="47" t="s">
+      <c r="A49" s="57"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="52" t="s">
         <v>17</v>
       </c>
       <c r="E49" s="13" t="s">
@@ -3363,9 +3578,9 @@
       <c r="Y49" s="11"/>
     </row>
     <row r="50" spans="1:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="37"/>
-      <c r="C50" s="44"/>
-      <c r="D50" s="47"/>
+      <c r="A50" s="57"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="52"/>
       <c r="E50" s="13" t="s">
         <v>19</v>
       </c>
@@ -3384,9 +3599,9 @@
       <c r="Y50" s="11"/>
     </row>
     <row r="51" spans="1:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="37"/>
-      <c r="C51" s="44"/>
-      <c r="D51" s="48" t="s">
+      <c r="A51" s="57"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="53" t="s">
         <v>20</v>
       </c>
       <c r="E51" s="15" t="s">
@@ -3407,9 +3622,9 @@
       <c r="Y51" s="11"/>
     </row>
     <row r="52" spans="1:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="37"/>
-      <c r="C52" s="45"/>
-      <c r="D52" s="49"/>
+      <c r="A52" s="57"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="54"/>
       <c r="E52" s="16" t="s">
         <v>22</v>
       </c>
@@ -3433,108 +3648,144 @@
     </row>
     <row r="53" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="55" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="C55" s="53" t="s">
+      <c r="C55" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="D55" s="36"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="36"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="36"/>
-      <c r="I55" s="36"/>
-      <c r="J55" s="36"/>
+      <c r="D55" s="46"/>
+      <c r="E55" s="46"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="46"/>
+      <c r="H55" s="46"/>
+      <c r="I55" s="46"/>
+      <c r="J55" s="46"/>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="C56" s="36"/>
-      <c r="D56" s="36"/>
-      <c r="E56" s="36"/>
-      <c r="F56" s="36"/>
-      <c r="G56" s="36"/>
-      <c r="H56" s="36"/>
-      <c r="I56" s="36"/>
-      <c r="J56" s="36"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="46"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="46"/>
+      <c r="H56" s="46"/>
+      <c r="I56" s="46"/>
+      <c r="J56" s="46"/>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="C57" s="36"/>
-      <c r="D57" s="36"/>
-      <c r="E57" s="36"/>
-      <c r="F57" s="36"/>
-      <c r="G57" s="36"/>
-      <c r="H57" s="36"/>
-      <c r="I57" s="36"/>
-      <c r="J57" s="36"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="46"/>
+      <c r="I57" s="46"/>
+      <c r="J57" s="46"/>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="C58" s="36"/>
-      <c r="D58" s="36"/>
-      <c r="E58" s="36"/>
-      <c r="F58" s="36"/>
-      <c r="G58" s="36"/>
-      <c r="H58" s="36"/>
-      <c r="I58" s="36"/>
-      <c r="J58" s="36"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="46"/>
+      <c r="E58" s="46"/>
+      <c r="F58" s="46"/>
+      <c r="G58" s="46"/>
+      <c r="H58" s="46"/>
+      <c r="I58" s="46"/>
+      <c r="J58" s="46"/>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="C59" s="36"/>
-      <c r="D59" s="36"/>
-      <c r="E59" s="36"/>
-      <c r="F59" s="36"/>
-      <c r="G59" s="36"/>
-      <c r="H59" s="36"/>
-      <c r="I59" s="36"/>
-      <c r="J59" s="36"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="46"/>
+      <c r="E59" s="46"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="46"/>
+      <c r="H59" s="46"/>
+      <c r="I59" s="46"/>
+      <c r="J59" s="46"/>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="C60" s="36"/>
-      <c r="D60" s="36"/>
-      <c r="E60" s="36"/>
-      <c r="F60" s="36"/>
-      <c r="G60" s="36"/>
-      <c r="H60" s="36"/>
-      <c r="I60" s="36"/>
-      <c r="J60" s="36"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="46"/>
+      <c r="E60" s="46"/>
+      <c r="F60" s="46"/>
+      <c r="G60" s="46"/>
+      <c r="H60" s="46"/>
+      <c r="I60" s="46"/>
+      <c r="J60" s="46"/>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="C61" s="36"/>
-      <c r="D61" s="36"/>
-      <c r="E61" s="36"/>
-      <c r="F61" s="36"/>
-      <c r="G61" s="36"/>
-      <c r="H61" s="36"/>
-      <c r="I61" s="36"/>
-      <c r="J61" s="36"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="46"/>
+      <c r="E61" s="46"/>
+      <c r="F61" s="46"/>
+      <c r="G61" s="46"/>
+      <c r="H61" s="46"/>
+      <c r="I61" s="46"/>
+      <c r="J61" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="118">
-    <mergeCell ref="Z43:Z44"/>
-    <mergeCell ref="AA43:AA44"/>
-    <mergeCell ref="AB43:AB44"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="W43:W44"/>
-    <mergeCell ref="Y43:Y44"/>
-    <mergeCell ref="W42:Y42"/>
-    <mergeCell ref="V17:V18"/>
-    <mergeCell ref="W17:W18"/>
-    <mergeCell ref="Y17:Y18"/>
-    <mergeCell ref="W16:Y16"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="X43:X44"/>
-    <mergeCell ref="X30:X31"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="Z16:AB16"/>
-    <mergeCell ref="Z29:AB29"/>
-    <mergeCell ref="Z42:AB42"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="Z17:Z18"/>
-    <mergeCell ref="AA17:AA18"/>
-    <mergeCell ref="AB17:AB18"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="Z30:Z31"/>
-    <mergeCell ref="AA30:AA31"/>
-    <mergeCell ref="AB30:AB31"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A3:A13"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="A16:A26"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:C26"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="V30:V31"/>
+    <mergeCell ref="W30:W31"/>
+    <mergeCell ref="Y30:Y31"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="A29:A39"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="Q29:S29"/>
+    <mergeCell ref="T29:V29"/>
+    <mergeCell ref="W29:Y29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="P30:P31"/>
+    <mergeCell ref="Q30:Q31"/>
+    <mergeCell ref="S30:S31"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="S43:S44"/>
+    <mergeCell ref="T43:T44"/>
+    <mergeCell ref="V43:V44"/>
+    <mergeCell ref="C34:C39"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="A42:A52"/>
+    <mergeCell ref="N42:P42"/>
     <mergeCell ref="R17:R18"/>
     <mergeCell ref="U17:U18"/>
     <mergeCell ref="U30:U31"/>
@@ -3559,71 +3810,35 @@
     <mergeCell ref="N43:N44"/>
     <mergeCell ref="P43:P44"/>
     <mergeCell ref="U43:U44"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="S43:S44"/>
-    <mergeCell ref="T43:T44"/>
-    <mergeCell ref="V43:V44"/>
-    <mergeCell ref="C34:C39"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="A42:A52"/>
-    <mergeCell ref="N42:P42"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="V30:V31"/>
-    <mergeCell ref="W30:W31"/>
-    <mergeCell ref="Y30:Y31"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="A29:A39"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="Q29:S29"/>
-    <mergeCell ref="T29:V29"/>
-    <mergeCell ref="W29:Y29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="P30:P31"/>
-    <mergeCell ref="Q30:Q31"/>
-    <mergeCell ref="S30:S31"/>
-    <mergeCell ref="A16:A26"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:C26"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="T17:T18"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A3:A13"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:C13"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="V17:V18"/>
+    <mergeCell ref="W17:W18"/>
+    <mergeCell ref="Y17:Y18"/>
+    <mergeCell ref="W16:Y16"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="X43:X44"/>
+    <mergeCell ref="X30:X31"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="Z16:AB16"/>
+    <mergeCell ref="Z29:AB29"/>
+    <mergeCell ref="Z42:AB42"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="Z17:Z18"/>
+    <mergeCell ref="AA17:AA18"/>
+    <mergeCell ref="AB17:AB18"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="Z30:Z31"/>
+    <mergeCell ref="AA30:AA31"/>
+    <mergeCell ref="AB30:AB31"/>
+    <mergeCell ref="Z43:Z44"/>
+    <mergeCell ref="AA43:AA44"/>
+    <mergeCell ref="AB43:AB44"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="W43:W44"/>
+    <mergeCell ref="Y43:Y44"/>
+    <mergeCell ref="W42:Y42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -3644,19 +3859,19 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="23"/>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="58" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3664,11 +3879,11 @@
       <c r="A2" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="25"/>
@@ -3903,477 +4118,566 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB46737-11B7-4114-AD1A-F9F7BF25B279}">
-  <dimension ref="B1:P40"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J3" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4:L40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="49" customWidth="1"/>
-    <col min="4" max="4" width="49.6640625" customWidth="1"/>
-    <col min="6" max="6" width="53.109375" customWidth="1"/>
-    <col min="8" max="8" width="57.6640625" customWidth="1"/>
-    <col min="10" max="10" width="48.44140625" customWidth="1"/>
-    <col min="12" max="12" width="44.5546875" customWidth="1"/>
-    <col min="14" max="14" width="54.6640625" customWidth="1"/>
-    <col min="15" max="15" width="8" customWidth="1"/>
-    <col min="16" max="16" width="45.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.21875" customWidth="1"/>
+    <col min="3" max="3" width="49" customWidth="1"/>
+    <col min="5" max="5" width="49.6640625" customWidth="1"/>
+    <col min="7" max="7" width="53.109375" customWidth="1"/>
+    <col min="9" max="9" width="57.6640625" customWidth="1"/>
+    <col min="11" max="11" width="48.44140625" customWidth="1"/>
+    <col min="13" max="13" width="44.5546875" customWidth="1"/>
+    <col min="15" max="15" width="54.6640625" customWidth="1"/>
+    <col min="16" max="16" width="8" customWidth="1"/>
+    <col min="17" max="17" width="45.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" t="s">
         <v>94</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>95</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" t="s">
         <v>96</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I2" t="s">
         <v>97</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K2" t="s">
         <v>98</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M2" t="s">
         <v>101</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O2" t="s">
         <v>104</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B2" s="32" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="E3" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="G3" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="I3" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="J2" s="61" t="s">
+      <c r="K3" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="L2" s="61" t="s">
+      <c r="M3" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O3" t="s">
         <v>106</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="59" t="s">
+    <row r="5" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="E5" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="59" t="s">
+      <c r="G5" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="H4" s="59" t="s">
+      <c r="I5" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="J4" s="59" t="s">
+      <c r="K5" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="L4" s="59" t="s">
+      <c r="M5" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="N4" s="59" t="s">
+      <c r="O5" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="P4" s="59" t="s">
+      <c r="Q5" s="60" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="59"/>
-      <c r="D5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="N5" s="60"/>
-      <c r="P5" s="60"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="59"/>
-      <c r="D6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="N6" s="60"/>
-      <c r="P6" s="60"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="59"/>
-      <c r="D7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="N7" s="60"/>
-      <c r="P7" s="60"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="59"/>
-      <c r="D8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="N8" s="60"/>
-      <c r="P8" s="60"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="59"/>
-      <c r="D9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="N9" s="60"/>
-      <c r="P9" s="60"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="59"/>
-      <c r="D10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="N10" s="60"/>
-      <c r="P10" s="60"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="59"/>
-      <c r="D11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="L11" s="60"/>
-      <c r="N11" s="60"/>
-      <c r="P11" s="60"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="59"/>
-      <c r="D12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="N12" s="60"/>
-      <c r="P12" s="60"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="59"/>
-      <c r="D13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="L13" s="60"/>
-      <c r="N13" s="60"/>
-      <c r="P13" s="60"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="59"/>
-      <c r="D14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="N14" s="60"/>
-      <c r="P14" s="60"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="59"/>
-      <c r="D15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="L15" s="60"/>
-      <c r="N15" s="60"/>
-      <c r="P15" s="60"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="59"/>
-      <c r="D16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="N16" s="60"/>
-      <c r="P16" s="60"/>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B17" s="59"/>
-      <c r="D17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="J17" s="60"/>
-      <c r="L17" s="60"/>
-      <c r="N17" s="60"/>
-      <c r="P17" s="60"/>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B18" s="59"/>
-      <c r="D18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="N18" s="60"/>
-      <c r="P18" s="60"/>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="59"/>
-      <c r="D19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="N19" s="60"/>
-      <c r="P19" s="60"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B20" s="59"/>
-      <c r="D20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="N20" s="60"/>
-      <c r="P20" s="60"/>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B21" s="59"/>
-      <c r="D21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="J21" s="60"/>
-      <c r="L21" s="60"/>
-      <c r="N21" s="60"/>
-      <c r="P21" s="60"/>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B22" s="59"/>
-      <c r="D22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="H22" s="60"/>
-      <c r="J22" s="60"/>
-      <c r="L22" s="60"/>
-      <c r="N22" s="60"/>
-      <c r="P22" s="60"/>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B23" s="59"/>
-      <c r="D23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="J23" s="60"/>
-      <c r="L23" s="60"/>
-      <c r="N23" s="60"/>
-      <c r="P23" s="60"/>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B24" s="59"/>
-      <c r="D24" s="60"/>
-      <c r="F24" s="60"/>
-      <c r="H24" s="60"/>
-      <c r="J24" s="60"/>
-      <c r="L24" s="60"/>
-      <c r="N24" s="60"/>
-      <c r="P24" s="60"/>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B25" s="59"/>
-      <c r="D25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="H25" s="60"/>
-      <c r="J25" s="60"/>
-      <c r="L25" s="60"/>
-      <c r="N25" s="60"/>
-      <c r="P25" s="60"/>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B26" s="59"/>
-      <c r="D26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="H26" s="60"/>
-      <c r="J26" s="60"/>
-      <c r="L26" s="60"/>
-      <c r="N26" s="60"/>
-      <c r="P26" s="60"/>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="59"/>
-      <c r="D27" s="60"/>
-      <c r="F27" s="60"/>
-      <c r="H27" s="60"/>
-      <c r="J27" s="60"/>
-      <c r="L27" s="60"/>
-      <c r="N27" s="60"/>
-      <c r="P27" s="60"/>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B28" s="59"/>
-      <c r="D28" s="60"/>
-      <c r="F28" s="60"/>
-      <c r="H28" s="60"/>
-      <c r="J28" s="60"/>
-      <c r="L28" s="60"/>
-      <c r="N28" s="60"/>
-      <c r="P28" s="60"/>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B29" s="59"/>
-      <c r="D29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="J29" s="60"/>
-      <c r="L29" s="60"/>
-      <c r="N29" s="60"/>
-      <c r="P29" s="60"/>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B30" s="59"/>
-      <c r="D30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="H30" s="60"/>
-      <c r="J30" s="60"/>
-      <c r="L30" s="60"/>
-      <c r="N30" s="60"/>
-      <c r="P30" s="60"/>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B31" s="59"/>
-      <c r="D31" s="60"/>
-      <c r="F31" s="60"/>
-      <c r="H31" s="60"/>
-      <c r="J31" s="60"/>
-      <c r="L31" s="60"/>
-      <c r="N31" s="60"/>
-      <c r="P31" s="60"/>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B32" s="59"/>
-      <c r="D32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="H32" s="60"/>
-      <c r="J32" s="60"/>
-      <c r="L32" s="60"/>
-      <c r="N32" s="60"/>
-      <c r="P32" s="60"/>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B33" s="59"/>
-      <c r="D33" s="60"/>
-      <c r="F33" s="60"/>
-      <c r="H33" s="60"/>
-      <c r="J33" s="60"/>
-      <c r="L33" s="60"/>
-      <c r="N33" s="60"/>
-      <c r="P33" s="60"/>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B34" s="59"/>
-      <c r="D34" s="60"/>
-      <c r="F34" s="60"/>
-      <c r="H34" s="60"/>
-      <c r="J34" s="60"/>
-      <c r="L34" s="60"/>
-      <c r="N34" s="60"/>
-      <c r="P34" s="60"/>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B35" s="59"/>
-      <c r="D35" s="60"/>
-      <c r="F35" s="60"/>
-      <c r="H35" s="60"/>
-      <c r="J35" s="60"/>
-      <c r="L35" s="60"/>
-      <c r="N35" s="60"/>
-      <c r="P35" s="60"/>
-    </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B36" s="59"/>
-      <c r="D36" s="60"/>
-      <c r="F36" s="60"/>
-      <c r="H36" s="60"/>
-      <c r="J36" s="60"/>
-      <c r="L36" s="60"/>
-      <c r="N36" s="60"/>
-      <c r="P36" s="60"/>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B37" s="59"/>
-      <c r="D37" s="60"/>
-      <c r="F37" s="60"/>
-      <c r="H37" s="60"/>
-      <c r="J37" s="60"/>
-      <c r="L37" s="60"/>
-      <c r="N37" s="60"/>
-      <c r="P37" s="60"/>
-    </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B38" s="59"/>
-      <c r="D38" s="60"/>
-      <c r="F38" s="60"/>
-      <c r="H38" s="60"/>
-      <c r="J38" s="60"/>
-      <c r="L38" s="60"/>
-      <c r="N38" s="60"/>
-      <c r="P38" s="60"/>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B39" s="59"/>
-      <c r="D39" s="60"/>
-      <c r="F39" s="60"/>
-      <c r="H39" s="60"/>
-      <c r="J39" s="60"/>
-      <c r="L39" s="60"/>
-      <c r="N39" s="60"/>
-      <c r="P39" s="60"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B40" s="59"/>
-      <c r="D40" s="60"/>
-      <c r="F40" s="60"/>
-      <c r="H40" s="60"/>
-      <c r="J40" s="60"/>
-      <c r="L40" s="60"/>
-      <c r="N40" s="60"/>
-      <c r="P40" s="60"/>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C6" s="60"/>
+      <c r="E6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="Q6" s="61"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C7" s="60"/>
+      <c r="E7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="O7" s="61"/>
+      <c r="Q7" s="61"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C8" s="60"/>
+      <c r="E8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="M8" s="61"/>
+      <c r="O8" s="61"/>
+      <c r="Q8" s="61"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C9" s="60"/>
+      <c r="E9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="M9" s="61"/>
+      <c r="O9" s="61"/>
+      <c r="Q9" s="61"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C10" s="60"/>
+      <c r="E10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="M10" s="61"/>
+      <c r="O10" s="61"/>
+      <c r="Q10" s="61"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C11" s="60"/>
+      <c r="E11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="M11" s="61"/>
+      <c r="O11" s="61"/>
+      <c r="Q11" s="61"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C12" s="60"/>
+      <c r="E12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="M12" s="61"/>
+      <c r="O12" s="61"/>
+      <c r="Q12" s="61"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C13" s="60"/>
+      <c r="E13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="Q13" s="61"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C14" s="60"/>
+      <c r="E14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="M14" s="61"/>
+      <c r="O14" s="61"/>
+      <c r="Q14" s="61"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C15" s="60"/>
+      <c r="E15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="M15" s="61"/>
+      <c r="O15" s="61"/>
+      <c r="Q15" s="61"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C16" s="60"/>
+      <c r="E16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="M16" s="61"/>
+      <c r="O16" s="61"/>
+      <c r="Q16" s="61"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C17" s="60"/>
+      <c r="E17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="M17" s="61"/>
+      <c r="O17" s="61"/>
+      <c r="Q17" s="61"/>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C18" s="60"/>
+      <c r="E18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="K18" s="61"/>
+      <c r="M18" s="61"/>
+      <c r="O18" s="61"/>
+      <c r="Q18" s="61"/>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C19" s="60"/>
+      <c r="E19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="M19" s="61"/>
+      <c r="O19" s="61"/>
+      <c r="Q19" s="61"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C20" s="60"/>
+      <c r="E20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="K20" s="61"/>
+      <c r="M20" s="61"/>
+      <c r="O20" s="61"/>
+      <c r="Q20" s="61"/>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C21" s="60"/>
+      <c r="E21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="M21" s="61"/>
+      <c r="O21" s="61"/>
+      <c r="Q21" s="61"/>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C22" s="60"/>
+      <c r="E22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="M22" s="61"/>
+      <c r="O22" s="61"/>
+      <c r="Q22" s="61"/>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C23" s="60"/>
+      <c r="E23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="M23" s="61"/>
+      <c r="O23" s="61"/>
+      <c r="Q23" s="61"/>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C24" s="60"/>
+      <c r="E24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="K24" s="61"/>
+      <c r="M24" s="61"/>
+      <c r="O24" s="61"/>
+      <c r="Q24" s="61"/>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C25" s="60"/>
+      <c r="E25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="K25" s="61"/>
+      <c r="M25" s="61"/>
+      <c r="O25" s="61"/>
+      <c r="Q25" s="61"/>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C26" s="60"/>
+      <c r="E26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="K26" s="61"/>
+      <c r="M26" s="61"/>
+      <c r="O26" s="61"/>
+      <c r="Q26" s="61"/>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C27" s="60"/>
+      <c r="E27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="K27" s="61"/>
+      <c r="M27" s="61"/>
+      <c r="O27" s="61"/>
+      <c r="Q27" s="61"/>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C28" s="60"/>
+      <c r="E28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="M28" s="61"/>
+      <c r="O28" s="61"/>
+      <c r="Q28" s="61"/>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C29" s="60"/>
+      <c r="E29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="I29" s="61"/>
+      <c r="K29" s="61"/>
+      <c r="M29" s="61"/>
+      <c r="O29" s="61"/>
+      <c r="Q29" s="61"/>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C30" s="60"/>
+      <c r="E30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="I30" s="61"/>
+      <c r="K30" s="61"/>
+      <c r="M30" s="61"/>
+      <c r="O30" s="61"/>
+      <c r="Q30" s="61"/>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C31" s="60"/>
+      <c r="E31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="I31" s="61"/>
+      <c r="K31" s="61"/>
+      <c r="M31" s="61"/>
+      <c r="O31" s="61"/>
+      <c r="Q31" s="61"/>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C32" s="60"/>
+      <c r="E32" s="61"/>
+      <c r="G32" s="61"/>
+      <c r="I32" s="61"/>
+      <c r="K32" s="61"/>
+      <c r="M32" s="61"/>
+      <c r="O32" s="61"/>
+      <c r="Q32" s="61"/>
+    </row>
+    <row r="33" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C33" s="60"/>
+      <c r="E33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="I33" s="61"/>
+      <c r="K33" s="61"/>
+      <c r="M33" s="61"/>
+      <c r="O33" s="61"/>
+      <c r="Q33" s="61"/>
+    </row>
+    <row r="34" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C34" s="60"/>
+      <c r="E34" s="61"/>
+      <c r="G34" s="61"/>
+      <c r="I34" s="61"/>
+      <c r="K34" s="61"/>
+      <c r="M34" s="61"/>
+      <c r="O34" s="61"/>
+      <c r="Q34" s="61"/>
+    </row>
+    <row r="35" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C35" s="60"/>
+      <c r="E35" s="61"/>
+      <c r="G35" s="61"/>
+      <c r="I35" s="61"/>
+      <c r="K35" s="61"/>
+      <c r="M35" s="61"/>
+      <c r="O35" s="61"/>
+      <c r="Q35" s="61"/>
+    </row>
+    <row r="36" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C36" s="60"/>
+      <c r="E36" s="61"/>
+      <c r="G36" s="61"/>
+      <c r="I36" s="61"/>
+      <c r="K36" s="61"/>
+      <c r="M36" s="61"/>
+      <c r="O36" s="61"/>
+      <c r="Q36" s="61"/>
+    </row>
+    <row r="37" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C37" s="60"/>
+      <c r="E37" s="61"/>
+      <c r="G37" s="61"/>
+      <c r="I37" s="61"/>
+      <c r="K37" s="61"/>
+      <c r="M37" s="61"/>
+      <c r="O37" s="61"/>
+      <c r="Q37" s="61"/>
+    </row>
+    <row r="38" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C38" s="60"/>
+      <c r="E38" s="61"/>
+      <c r="G38" s="61"/>
+      <c r="I38" s="61"/>
+      <c r="K38" s="61"/>
+      <c r="M38" s="61"/>
+      <c r="O38" s="61"/>
+      <c r="Q38" s="61"/>
+    </row>
+    <row r="39" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C39" s="60"/>
+      <c r="E39" s="61"/>
+      <c r="G39" s="61"/>
+      <c r="I39" s="61"/>
+      <c r="K39" s="61"/>
+      <c r="M39" s="61"/>
+      <c r="O39" s="61"/>
+      <c r="Q39" s="61"/>
+    </row>
+    <row r="40" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C40" s="60"/>
+      <c r="E40" s="61"/>
+      <c r="G40" s="61"/>
+      <c r="I40" s="61"/>
+      <c r="K40" s="61"/>
+      <c r="M40" s="61"/>
+      <c r="O40" s="61"/>
+      <c r="Q40" s="61"/>
+    </row>
+    <row r="41" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C41" s="60"/>
+      <c r="E41" s="61"/>
+      <c r="G41" s="61"/>
+      <c r="I41" s="61"/>
+      <c r="K41" s="61"/>
+      <c r="M41" s="61"/>
+      <c r="O41" s="61"/>
+      <c r="Q41" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="L4:L40"/>
-    <mergeCell ref="N4:N40"/>
-    <mergeCell ref="P4:P40"/>
-    <mergeCell ref="B4:B40"/>
-    <mergeCell ref="D4:D40"/>
-    <mergeCell ref="F4:F40"/>
-    <mergeCell ref="H4:H40"/>
-    <mergeCell ref="J4:J40"/>
+    <mergeCell ref="M5:M41"/>
+    <mergeCell ref="O5:O41"/>
+    <mergeCell ref="Q5:Q41"/>
+    <mergeCell ref="C5:C41"/>
+    <mergeCell ref="E5:E41"/>
+    <mergeCell ref="G5:G41"/>
+    <mergeCell ref="I5:I41"/>
+    <mergeCell ref="K5:K41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"Calibri"&amp;12&amp;K03C03C Public&amp;1#_x000D_</oddHeader>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{498A0B66-AA33-48FC-BF4F-BE7642C013FA}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.6640625" style="62" customWidth="1"/>
+    <col min="2" max="2" width="104.109375" style="62" customWidth="1"/>
+    <col min="3" max="3" width="133" style="62" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="62"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="63" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="63" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="267.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="62" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="267.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="62" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="267.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="62" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="267.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="62" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>